--- a/data/MA375_SP21_Curve_Fitting_Data_samples.xlsx
+++ b/data/MA375_SP21_Curve_Fitting_Data_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c2cb894d5cafdee/UOG/Math_CS_Division/2021_Spring_Fanomnakan/MA375-01-SP21/topic5_curve_fitting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henry/Google Drive/Spring 2021/MA375/project2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="8_{2CC373BC-CDE3-4243-937A-20B069E618FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8980DA56-E3C9-4054-BB39-75AD4300EC93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44E347-7DC1-924C-B438-0211C566A054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="263" yWindow="143" windowWidth="17257" windowHeight="12397" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Length Wt of rabbitfish" sheetId="1" r:id="rId1"/>
@@ -47,15 +47,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t xml:space="preserve">Length </t>
   </si>
   <si>
     <t>Weight</t>
-  </si>
-  <si>
-    <t>Siganus spinus (rabbitfish AKA manahak when juvenile and sesyun when adult)</t>
   </si>
   <si>
     <t>Year</t>
@@ -173,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,7 +374,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Length Wt of rabbitfish'!$A$3:$A$44</c:f>
+              <c:f>'Length Wt of rabbitfish'!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="42"/>
@@ -512,7 +509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Length Wt of rabbitfish'!$B$3:$B$44</c:f>
+              <c:f>'Length Wt of rabbitfish'!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -4715,13 +4712,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5142,287 +5139,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="9.3125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="9.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="B3" s="2">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>13.8</v>
       </c>
       <c r="B4" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="B5" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>14.1</v>
       </c>
       <c r="B6" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="B10" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>14.9</v>
       </c>
       <c r="B11" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="B12" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="B13" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="B14" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>15.3</v>
       </c>
       <c r="B15" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="B16" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="B17" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="B18" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="B21" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>16.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="B22" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>16.2</v>
       </c>
       <c r="B23" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="B24" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>16.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B25" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>16.399999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="B26" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>16.600000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="B27" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>16.7</v>
       </c>
       <c r="B28" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="B29" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>16.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>17</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B31" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>17.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="B32" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>17.399999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="B33" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>17.7</v>
       </c>
       <c r="B34" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>17.7</v>
       </c>
@@ -5430,449 +5430,441 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B37" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>18.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="B38" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>18.5</v>
       </c>
       <c r="B39" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="B41" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>19.2</v>
+        <v>20.5</v>
       </c>
       <c r="B42" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="B43" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="B44" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:2">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:2">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:2">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:2">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:2">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:2">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:2">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:2">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:2">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:2">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:2">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:2">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:2">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:2">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:2">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:2">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:2">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:2">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:2">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:2">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:2">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:2">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:2">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:2">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:2">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:2">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:2">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:2">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:2">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:2">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:2">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:2">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:2">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:2">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:2">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:2">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:2">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:2">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:2">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:2">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:2">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:2">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:2">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:2">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:2">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:2">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:2">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5888,777 +5880,777 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="9" style="9"/>
-    <col min="7" max="7" width="13.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8">
       <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="9">
         <v>2008</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9">
         <v>92</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="8">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="9">
         <v>2009</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9">
         <v>94</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="8">
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9">
         <v>2009</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9">
         <v>77</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="8">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9">
         <v>2010</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="9">
         <v>137</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8">
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9">
         <v>2010</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9">
         <v>104</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="8">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="9">
         <v>2011</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="9">
         <v>128</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="8">
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9">
         <v>2011</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="9">
         <v>87</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="8">
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9">
         <v>2012</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9">
         <v>128</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="8">
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="9">
         <v>2012</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9">
         <v>106</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="8">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9">
         <v>2013</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="9">
         <v>146</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="8">
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9">
         <v>2013</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="9">
         <v>100</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="8">
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="9">
         <v>2014</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9">
         <v>151</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="8">
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="9">
         <v>2014</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="9">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="9">
         <v>2015</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9">
         <v>2015</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="9">
         <v>2016</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9">
         <v>2016</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9">
         <v>2017</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="9">
         <v>2017</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="9">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9">
         <v>2018</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="9">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="9">
         <v>2018</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="9">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="9">
         <v>2019</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="9">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="9">
         <v>2019</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="9">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="9">
         <v>2020</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="9">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="9">
         <v>2008</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="9">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9">
         <v>2009</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="9">
         <v>2009</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="9">
         <v>2010</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="9">
         <v>2010</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="9">
         <v>2011</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="9">
         <v>2011</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="9">
         <v>2012</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="9">
         <v>2012</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="9">
         <v>2013</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="9">
         <v>2013</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="9">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="9">
         <v>2014</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="9">
         <v>2014</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="9">
         <v>2015</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="9">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="9">
         <v>2015</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="9">
         <v>2016</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="9">
         <v>2016</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="9">
         <v>2017</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" s="9">
         <v>2017</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="9">
         <v>2018</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" s="9">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" s="9">
         <v>2018</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="9">
         <v>2019</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="9">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" s="9">
         <v>2019</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="9">
         <v>2020</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="9">
         <v>109</v>
@@ -6677,26 +6669,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D4A6FD-7542-4D30-B5A8-FDFB8A99FCA2}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -6704,7 +6696,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -6712,7 +6704,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -6720,7 +6712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -6728,7 +6720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -6736,7 +6728,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -6744,7 +6736,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -6752,7 +6744,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -6760,7 +6752,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -6781,20 +6773,20 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1710</v>
       </c>
@@ -6802,10 +6794,10 @@
         <v>3614</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1793</v>
       </c>
@@ -6813,10 +6805,10 @@
         <v>3584</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -6824,10 +6816,10 @@
         <v>4060</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1816</v>
       </c>
@@ -6835,10 +6827,10 @@
         <v>5389</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -6846,10 +6838,10 @@
         <v>5901</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1830</v>
       </c>
@@ -6857,10 +6849,10 @@
         <v>6490</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1849</v>
       </c>
@@ -6868,10 +6860,10 @@
         <v>7940</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1871</v>
       </c>
@@ -6879,10 +6871,10 @@
         <v>6270</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1886</v>
       </c>
@@ -6890,10 +6882,10 @@
         <v>8144</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1891</v>
       </c>
@@ -6901,10 +6893,10 @@
         <v>8369</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1897</v>
       </c>
@@ -6912,10 +6904,10 @@
         <v>8698</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1901</v>
       </c>
@@ -6923,10 +6915,10 @@
         <v>9676</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1910</v>
       </c>
@@ -6934,10 +6926,10 @@
         <v>11806</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1920</v>
       </c>
@@ -6945,10 +6937,10 @@
         <v>13275</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1930</v>
       </c>
@@ -6956,10 +6948,10 @@
         <v>18509</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1940</v>
       </c>
@@ -6967,10 +6959,10 @@
         <v>22290</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1950</v>
       </c>
@@ -6978,10 +6970,10 @@
         <v>59498</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1960</v>
       </c>
@@ -6989,10 +6981,10 @@
         <v>67044</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>1970</v>
       </c>
@@ -7000,10 +6992,10 @@
         <v>84996</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>1980</v>
       </c>
@@ -7011,10 +7003,10 @@
         <v>105979</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>1990</v>
       </c>
@@ -7022,10 +7014,10 @@
         <v>133152</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -7033,10 +7025,10 @@
         <v>154805</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -7044,10 +7036,10 @@
         <v>159358</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -7055,7 +7047,7 @@
         <v>167368</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7072,20 +7064,20 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>11</v>
       </c>
@@ -7093,7 +7085,7 @@
         <v>4.7600000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>15</v>
       </c>
@@ -7101,7 +7093,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>18</v>
       </c>
@@ -7109,7 +7101,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>23</v>
       </c>
@@ -7117,7 +7109,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>26</v>
       </c>
@@ -7125,7 +7117,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>31</v>
       </c>
@@ -7133,7 +7125,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>39</v>
       </c>
@@ -7141,7 +7133,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>44</v>
       </c>
@@ -7149,7 +7141,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>54</v>
       </c>
@@ -7157,7 +7149,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>64</v>
       </c>
@@ -7165,7 +7157,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>74</v>
       </c>
@@ -7187,24 +7179,24 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="8.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>39</v>
       </c>
@@ -7215,7 +7207,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>42</v>
       </c>
@@ -7226,7 +7218,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -7237,7 +7229,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -7248,7 +7240,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>12</v>
       </c>
@@ -7259,7 +7251,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>13</v>
       </c>
@@ -7270,7 +7262,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -7281,7 +7273,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>15</v>
       </c>
@@ -7292,7 +7284,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>19</v>
       </c>
@@ -7303,7 +7295,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -7314,7 +7306,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -7325,7 +7317,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>25</v>
       </c>
@@ -7336,7 +7328,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>26</v>
       </c>
@@ -7347,7 +7339,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>28</v>
       </c>
@@ -7358,7 +7350,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>30</v>
       </c>
@@ -7369,7 +7361,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>31</v>
       </c>
@@ -7380,7 +7372,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>33</v>
       </c>
@@ -7391,7 +7383,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>34</v>
       </c>
@@ -7402,7 +7394,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>45</v>
       </c>

--- a/data/MA375_SP21_Curve_Fitting_Data_samples.xlsx
+++ b/data/MA375_SP21_Curve_Fitting_Data_samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henry/Google Drive/Spring 2021/MA375/project2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44E347-7DC1-924C-B438-0211C566A054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94495142-E896-9D42-9593-020D5D659C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57600" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,6 +372,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17034671069342139"/>
+                  <c:y val="-1.6053878681831439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Length Wt of rabbitfish'!$A$2:$A$43</c:f>
@@ -4710,16 +4761,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5141,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
